--- a/data/trans_bre/P16B17-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B17-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B17-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B17-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
